--- a/data/trans_orig/P04A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04A_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>18999</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7375</v>
+        <v>8850</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39402</v>
+        <v>37665</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02777485720457175</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01078122829998789</v>
+        <v>0.01293789271913751</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05760408475116172</v>
+        <v>0.05506459175352799</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,19 +762,19 @@
         <v>6148</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2023</v>
+        <v>2181</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13055</v>
+        <v>13701</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008423617876648437</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00277167283015863</v>
+        <v>0.002988767212700759</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01788700038118998</v>
+        <v>0.01877213588315533</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -783,19 +783,19 @@
         <v>25146</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12967</v>
+        <v>13466</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45952</v>
+        <v>44396</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01778572994091874</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009171224771486118</v>
+        <v>0.009524653807678867</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03250096239325075</v>
+        <v>0.03140072595098971</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>16678</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10222</v>
+        <v>10163</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27166</v>
+        <v>28018</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02438192843549947</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01494432445881936</v>
+        <v>0.01485823913662713</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03971503857262933</v>
+        <v>0.04096055092629265</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -833,19 +833,19 @@
         <v>19276</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12223</v>
+        <v>12147</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30467</v>
+        <v>30676</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02641135682878229</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01674706935110862</v>
+        <v>0.01664297808539424</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04174463688674996</v>
+        <v>0.04203123921022604</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>41</v>
@@ -854,19 +854,19 @@
         <v>35954</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25922</v>
+        <v>25771</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52046</v>
+        <v>50867</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02542952120976281</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01833458684439574</v>
+        <v>0.01822779074129558</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03681159102638191</v>
+        <v>0.03597766369634042</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>59477</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>43292</v>
+        <v>43994</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79319</v>
+        <v>78419</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08695181881373691</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06329085818301039</v>
+        <v>0.0643168138382185</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1159592726608083</v>
+        <v>0.114644443281516</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>70</v>
@@ -904,19 +904,19 @@
         <v>56085</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44286</v>
+        <v>44036</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>71197</v>
+        <v>72005</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.07684584970097642</v>
+        <v>0.07684584970097641</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06067953888683252</v>
+        <v>0.06033730903609628</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09755304160223184</v>
+        <v>0.09865969130476267</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>120</v>
@@ -925,19 +925,19 @@
         <v>115562</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>95498</v>
+        <v>96460</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>140503</v>
+        <v>138295</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.08173510840675832</v>
+        <v>0.08173510840675831</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06754439794941339</v>
+        <v>0.06822495885340167</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0993755798441089</v>
+        <v>0.09781418973131957</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>51768</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38357</v>
+        <v>39658</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64771</v>
+        <v>68103</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07568150686602507</v>
+        <v>0.07568150686602505</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05607590597112551</v>
+        <v>0.05797835825173043</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09469216407336474</v>
+        <v>0.09956209825649362</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -975,19 +975,19 @@
         <v>36282</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27794</v>
+        <v>27836</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47806</v>
+        <v>47968</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04971235637453652</v>
+        <v>0.04971235637453651</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03808277427852186</v>
+        <v>0.03813997841141646</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06550259761091254</v>
+        <v>0.06572468548155579</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>114</v>
@@ -996,19 +996,19 @@
         <v>88049</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73294</v>
+        <v>72162</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>106875</v>
+        <v>106038</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06227620786721026</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05183956924264989</v>
+        <v>0.05103896918201093</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07559139523383379</v>
+        <v>0.07499891774251541</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>119910</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>96980</v>
+        <v>97518</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>145337</v>
+        <v>144351</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1753015337804163</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1417798467897312</v>
+        <v>0.1425660879073226</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.212473800587408</v>
+        <v>0.2110324393976898</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>193</v>
@@ -1046,19 +1046,19 @@
         <v>137529</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>119983</v>
+        <v>119452</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>156535</v>
+        <v>156358</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1884394606483936</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1643979913793166</v>
+        <v>0.1636707435348392</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2144799132830205</v>
+        <v>0.2142383544562003</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>291</v>
@@ -1067,19 +1067,19 @@
         <v>257439</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>227595</v>
+        <v>228316</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>286440</v>
+        <v>285825</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1820833435260805</v>
+        <v>0.1820833435260806</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1609749650836741</v>
+        <v>0.1614845615699977</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2025948444672681</v>
+        <v>0.202159877272284</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>417190</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>388860</v>
+        <v>387958</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>445207</v>
+        <v>443478</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6099083548997504</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5684909452900883</v>
+        <v>0.5671728807730545</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6508670350216342</v>
+        <v>0.6483391652765983</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>884</v>
@@ -1117,19 +1117,19 @@
         <v>474514</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>452898</v>
+        <v>451647</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>500637</v>
+        <v>495899</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.6501673585706628</v>
+        <v>0.6501673585706627</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6205506350087443</v>
+        <v>0.6188356697733676</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.685961651383164</v>
+        <v>0.6794687841779257</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1385</v>
@@ -1138,19 +1138,19 @@
         <v>891704</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>855898</v>
+        <v>854373</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>929133</v>
+        <v>928335</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6306900890492694</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6053651493955405</v>
+        <v>0.6042867767056942</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6571630356328806</v>
+        <v>0.6565985890516801</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>4743</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11973</v>
+        <v>11452</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004563381034474268</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00137205187837571</v>
+        <v>0.001367053236174563</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01151940696851854</v>
+        <v>0.01101876768562191</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1263,19 +1263,19 @@
         <v>5306</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2531</v>
+        <v>2807</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9554</v>
+        <v>9434</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004968083496975747</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002369515998843477</v>
+        <v>0.002628161400725577</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008945368290566025</v>
+        <v>0.008832555542756757</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1284,19 +1284,19 @@
         <v>10049</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5311</v>
+        <v>5525</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17567</v>
+        <v>17987</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.004768487200607262</v>
+        <v>0.004768487200607261</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0025200290146275</v>
+        <v>0.002621522159710112</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.008336091598557312</v>
+        <v>0.008535145239620668</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>18797</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11145</v>
+        <v>11375</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28730</v>
+        <v>28234</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01808562258124739</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01072302115525506</v>
+        <v>0.0109440611440701</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02764270000948536</v>
+        <v>0.02716465313810523</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -1334,19 +1334,19 @@
         <v>15571</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9788</v>
+        <v>9863</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23200</v>
+        <v>24088</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01457900800138432</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009164182963982123</v>
+        <v>0.009234468747654804</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02172177418862225</v>
+        <v>0.0225536553981945</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -1355,19 +1355,19 @@
         <v>34368</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>24839</v>
+        <v>24637</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>46256</v>
+        <v>45859</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0163084446808803</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01178645446286142</v>
+        <v>0.0116905511908598</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02194924603107459</v>
+        <v>0.02176125729268854</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>140799</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>115033</v>
+        <v>114207</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>168561</v>
+        <v>168649</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1354682933622517</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1106782308116994</v>
+        <v>0.1098827212554978</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1621794019200352</v>
+        <v>0.1622643933636259</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>125</v>
@@ -1405,19 +1405,19 @@
         <v>107632</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89070</v>
+        <v>88303</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128222</v>
+        <v>127113</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1007748945053428</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08339569010137393</v>
+        <v>0.08267783868501331</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1200533818360784</v>
+        <v>0.1190154710786991</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>233</v>
@@ -1426,19 +1426,19 @@
         <v>248431</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>220119</v>
+        <v>218459</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>287109</v>
+        <v>283421</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1178854252332066</v>
+        <v>0.1178854252332065</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1044509387468109</v>
+        <v>0.1036632304320291</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.136239172391461</v>
+        <v>0.1344890724588113</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>45546</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31537</v>
+        <v>33500</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65719</v>
+        <v>65436</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04382191242290358</v>
+        <v>0.04382191242290357</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03034302459403419</v>
+        <v>0.03223183401662738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06323095892499959</v>
+        <v>0.06295820394092425</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -1476,19 +1476,19 @@
         <v>44253</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33722</v>
+        <v>34777</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56074</v>
+        <v>57348</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04143421700839179</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0315733611364244</v>
+        <v>0.03256112662358371</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05250198615602859</v>
+        <v>0.05369455240123129</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>99</v>
@@ -1497,19 +1497,19 @@
         <v>89800</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>71867</v>
+        <v>71426</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>114408</v>
+        <v>109356</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04261181093417827</v>
+        <v>0.04261181093417826</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03410244751512797</v>
+        <v>0.03389313364218718</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05428869234521189</v>
+        <v>0.0518917065290313</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>288861</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>256410</v>
+        <v>253788</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>324657</v>
+        <v>322638</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2779248497374847</v>
+        <v>0.2779248497374848</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2467024722184332</v>
+        <v>0.2441794646080292</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3123657140224726</v>
+        <v>0.3104225100972088</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>368</v>
@@ -1547,19 +1547,19 @@
         <v>297042</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>268341</v>
+        <v>272514</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>323266</v>
+        <v>326197</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2781182925795412</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2512455670105402</v>
+        <v>0.2551532630026045</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3026714675167383</v>
+        <v>0.3054163612864689</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>597</v>
@@ -1568,19 +1568,19 @@
         <v>585903</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>544649</v>
+        <v>544062</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>635159</v>
+        <v>628251</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2780228879837925</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2584469010000766</v>
+        <v>0.2581686387000373</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3013959641923399</v>
+        <v>0.298117995821885</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>540603</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>500750</v>
+        <v>508071</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>577113</v>
+        <v>581615</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5201359408616383</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4817914515165517</v>
+        <v>0.4888350746450891</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5552636044959337</v>
+        <v>0.5595950774498509</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>925</v>
@@ -1618,19 +1618,19 @@
         <v>598237</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>564903</v>
+        <v>570895</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>627850</v>
+        <v>623499</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5601255044083641</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5289150127255794</v>
+        <v>0.5345249955954746</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5878515310131301</v>
+        <v>0.5837780233794122</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1487</v>
@@ -1639,19 +1639,19 @@
         <v>1138840</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1094339</v>
+        <v>1092837</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1190411</v>
+        <v>1187269</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5404029439673351</v>
+        <v>0.540402943967335</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5192862885800864</v>
+        <v>0.5185735604530956</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5648740816297152</v>
+        <v>0.5633831126882781</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>6195</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2137</v>
+        <v>2478</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14335</v>
+        <v>16671</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.007757004883583773</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002675530267084337</v>
+        <v>0.003103072912278911</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0179478621502709</v>
+        <v>0.02087271402688963</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -1764,19 +1764,19 @@
         <v>12056</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6162</v>
+        <v>6900</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23923</v>
+        <v>23617</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01495365224394769</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007643114784684605</v>
+        <v>0.00855789410818774</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02967272215542769</v>
+        <v>0.02929385909677265</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -1785,19 +1785,19 @@
         <v>18251</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11874</v>
+        <v>10550</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31995</v>
+        <v>29689</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0113722495995172</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007398584630444426</v>
+        <v>0.006573470420774497</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0199361061785159</v>
+        <v>0.01849890129704499</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>14035</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6584</v>
+        <v>7088</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28435</v>
+        <v>29287</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.01757291060066422</v>
+        <v>0.01757291060066421</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008243787912814783</v>
+        <v>0.008874379249828415</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03560247596538566</v>
+        <v>0.03666952538819392</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1835,19 +1835,19 @@
         <v>6007</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2611</v>
+        <v>2809</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11241</v>
+        <v>11413</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.007451379872354673</v>
+        <v>0.007451379872354675</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003237969429292761</v>
+        <v>0.003484097364451997</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01394265394658351</v>
+        <v>0.01415654138771736</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -1856,19 +1856,19 @@
         <v>20043</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12324</v>
+        <v>12318</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35178</v>
+        <v>34866</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01248834710180347</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0076791318070697</v>
+        <v>0.007675495309169113</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02191936673494167</v>
+        <v>0.02172466926507863</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>132444</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>107154</v>
+        <v>109599</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>158397</v>
+        <v>161801</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1658296261390206</v>
+        <v>0.1658296261390205</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1341645099105697</v>
+        <v>0.1372263605668849</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.198324176046258</v>
+        <v>0.2025871764952801</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>133</v>
@@ -1906,19 +1906,19 @@
         <v>128196</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>108255</v>
+        <v>107398</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>153568</v>
+        <v>151915</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.15900867189197</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1342750448759431</v>
+        <v>0.1332116883377215</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1904789810826547</v>
+        <v>0.1884277540011214</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>237</v>
@@ -1927,19 +1927,19 @@
         <v>260640</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>227485</v>
+        <v>225796</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>295170</v>
+        <v>299530</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1624031113239295</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1417441605711333</v>
+        <v>0.1406921017687313</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1839182351400674</v>
+        <v>0.1866348100460527</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>33297</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21427</v>
+        <v>20822</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>51599</v>
+        <v>50542</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04169059304568705</v>
+        <v>0.04169059304568704</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02682803159179311</v>
+        <v>0.02607082969928956</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06460541777445503</v>
+        <v>0.0632829179347688</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>34</v>
@@ -1977,19 +1977,19 @@
         <v>30306</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21134</v>
+        <v>21253</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>43641</v>
+        <v>43154</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03759058879475462</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02621375582985903</v>
+        <v>0.02636097805480415</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05413008432240845</v>
+        <v>0.05352674257203296</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>57</v>
@@ -1998,19 +1998,19 @@
         <v>63604</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>47753</v>
+        <v>46755</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>83860</v>
+        <v>84400</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03963095083157438</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02975477796886493</v>
+        <v>0.0291330011143476</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05225235682231469</v>
+        <v>0.05258922265572429</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>209570</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>178199</v>
+        <v>181397</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>239955</v>
+        <v>241702</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2623969866605637</v>
+        <v>0.2623969866605638</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2231177311754845</v>
+        <v>0.2271225871702026</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.300441300969268</v>
+        <v>0.3026285774858832</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>277</v>
@@ -2048,19 +2048,19 @@
         <v>219054</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>196971</v>
+        <v>198640</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>244093</v>
+        <v>245258</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2717043367594537</v>
+        <v>0.2717043367594536</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2443138624191437</v>
+        <v>0.2463833391174363</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3027618259751249</v>
+        <v>0.3042064165271867</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>432</v>
@@ -2069,19 +2069,19 @@
         <v>428624</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>391569</v>
+        <v>393052</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>468261</v>
+        <v>466078</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2670725455117137</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2439839415480738</v>
+        <v>0.2449078891023916</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.291770039306789</v>
+        <v>0.2904095087196577</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>403134</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>371956</v>
+        <v>369979</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>436541</v>
+        <v>434296</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5047528786704807</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4657158970375755</v>
+        <v>0.4632409041796112</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5465820854140807</v>
+        <v>0.5437705956108042</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>575</v>
@@ -2119,19 +2119,19 @@
         <v>410602</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>384445</v>
+        <v>382590</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>435671</v>
+        <v>434478</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5092913704375194</v>
+        <v>0.5092913704375193</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4768471288902975</v>
+        <v>0.4745461448031313</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5403863676540775</v>
+        <v>0.538906482584438</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>952</v>
@@ -2140,19 +2140,19 @@
         <v>813736</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>770364</v>
+        <v>770435</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>856157</v>
+        <v>854879</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5070327956314618</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4800081218423857</v>
+        <v>0.4800520944487439</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5334649625122168</v>
+        <v>0.5326686355064292</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>9158</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3628</v>
+        <v>3948</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24592</v>
+        <v>22595</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009279128890971731</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003675579210924519</v>
+        <v>0.004000119694583713</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02491770510332188</v>
+        <v>0.02289472496449877</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2265,19 +2265,19 @@
         <v>5186</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1972</v>
+        <v>1989</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10516</v>
+        <v>9942</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.004642407773881345</v>
+        <v>0.004642407773881344</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001765679004750569</v>
+        <v>0.001780376300597873</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.009414801935925282</v>
+        <v>0.008900740198770246</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -2286,19 +2286,19 @@
         <v>14343</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8060</v>
+        <v>7735</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27860</v>
+        <v>26744</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.006817443231256983</v>
+        <v>0.006817443231256984</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003830957911091029</v>
+        <v>0.003676716575810601</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01324206886402097</v>
+        <v>0.01271152337102721</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>14078</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7907</v>
+        <v>7844</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23968</v>
+        <v>23840</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01426504283259784</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008011566475688273</v>
+        <v>0.007948157161452992</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02428523715232059</v>
+        <v>0.0241560141063551</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -2336,19 +2336,19 @@
         <v>14361</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8670</v>
+        <v>8362</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22640</v>
+        <v>24234</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01285724411612491</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007762301860494042</v>
+        <v>0.007486241247868576</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02026850278079574</v>
+        <v>0.02169607392488618</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>32</v>
@@ -2357,19 +2357,19 @@
         <v>28440</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19836</v>
+        <v>19322</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>40640</v>
+        <v>40590</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.01351762718593912</v>
+        <v>0.01351762718593913</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009428120463694298</v>
+        <v>0.009183902343812451</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01931654534384759</v>
+        <v>0.0192926995858215</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>165692</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>139474</v>
+        <v>141500</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>193731</v>
+        <v>196908</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1678876011661994</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1413224209299453</v>
+        <v>0.1433751842648408</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1962976255528915</v>
+        <v>0.1995171658741885</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>190</v>
@@ -2407,19 +2407,19 @@
         <v>164214</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>139764</v>
+        <v>141341</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>186668</v>
+        <v>186132</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1470143444894728</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1251251634114502</v>
+        <v>0.1265370786840451</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.167116872815457</v>
+        <v>0.1666368349831586</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>329</v>
@@ -2428,19 +2428,19 @@
         <v>329906</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>294024</v>
+        <v>295320</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>365065</v>
+        <v>366547</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1568057622254768</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1397510640540848</v>
+        <v>0.1403669103107896</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1735173923090305</v>
+        <v>0.1742215543031422</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>32353</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22110</v>
+        <v>21542</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>46995</v>
+        <v>46586</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03278169540466692</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02240290632038716</v>
+        <v>0.02182706992812633</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04761765280054232</v>
+        <v>0.04720374852282547</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>38</v>
@@ -2478,19 +2478,19 @@
         <v>27053</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19605</v>
+        <v>18761</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>39370</v>
+        <v>38299</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02421997629034948</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01755171339228005</v>
+        <v>0.01679639366714646</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03524656788757312</v>
+        <v>0.03428811770744596</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>70</v>
@@ -2499,19 +2499,19 @@
         <v>59406</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>46463</v>
+        <v>46923</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>77184</v>
+        <v>79158</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0282361856286883</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02208424872539767</v>
+        <v>0.02230292409076371</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03668575377875279</v>
+        <v>0.03762428040314018</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>221712</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>196643</v>
+        <v>192234</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>248965</v>
+        <v>251367</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2246500726582166</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1992486630666169</v>
+        <v>0.1947810833289109</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2522638048576754</v>
+        <v>0.2546976287668396</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>328</v>
@@ -2549,19 +2549,19 @@
         <v>247786</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>221767</v>
+        <v>223200</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>273146</v>
+        <v>273281</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2218334107380183</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1985401642187925</v>
+        <v>0.1998226416939223</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2445378247208255</v>
+        <v>0.2446586937717393</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>535</v>
@@ -2570,19 +2570,19 @@
         <v>469498</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>432875</v>
+        <v>430547</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>505595</v>
+        <v>506267</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2231546762170419</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.205747486095261</v>
+        <v>0.2046409275742205</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2403117364024218</v>
+        <v>0.2406309385070549</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>543929</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>512183</v>
+        <v>510160</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>576369</v>
+        <v>578859</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5511364590473476</v>
+        <v>0.5511364590473475</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5189694952659689</v>
+        <v>0.5169193011950179</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5840059501356729</v>
+        <v>0.5865295428155421</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>978</v>
@@ -2620,19 +2620,19 @@
         <v>658390</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>629246</v>
+        <v>631744</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>688786</v>
+        <v>687493</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.5894326165921532</v>
+        <v>0.5894326165921531</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.563340756265777</v>
+        <v>0.5655769974527751</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6166450190828829</v>
+        <v>0.6154869729461119</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1582</v>
@@ -2641,19 +2641,19 @@
         <v>1202320</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1158875</v>
+        <v>1159131</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1249510</v>
+        <v>1248455</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.5714683055115968</v>
+        <v>0.5714683055115969</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.550819006147833</v>
+        <v>0.5509406168931715</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5938980501060661</v>
+        <v>0.5933966153599293</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>39095</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24885</v>
+        <v>25225</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>60301</v>
+        <v>60613</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01114135118916345</v>
+        <v>0.01114135118916344</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0070919013833028</v>
+        <v>0.007188666546250095</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01718468472578034</v>
+        <v>0.01727377707616353</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -2766,19 +2766,19 @@
         <v>28695</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>19291</v>
+        <v>19614</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>39927</v>
+        <v>43249</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.007711576726432729</v>
+        <v>0.007711576726432726</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005184307121190551</v>
+        <v>0.0052710664931506</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0107299027287008</v>
+        <v>0.01162276458387457</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>59</v>
@@ -2787,19 +2787,19 @@
         <v>67790</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>50267</v>
+        <v>50167</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>92846</v>
+        <v>91795</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.009376152136307764</v>
+        <v>0.009376152136307768</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006952551172476206</v>
+        <v>0.006938665329113938</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01284165507955954</v>
+        <v>0.01269637081812902</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>63589</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>49560</v>
+        <v>48075</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>85026</v>
+        <v>82214</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01812173056499867</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01412378218812643</v>
+        <v>0.01370057905493988</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02423100413167514</v>
+        <v>0.02342961424638692</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>72</v>
@@ -2837,19 +2837,19 @@
         <v>55216</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>43120</v>
+        <v>43553</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>68897</v>
+        <v>71438</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.01483860713574093</v>
+        <v>0.01483860713574092</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0115881332167316</v>
+        <v>0.01170442330296462</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01851518930146876</v>
+        <v>0.01919816825169813</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>132</v>
@@ -2858,19 +2858,19 @@
         <v>118804</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>99421</v>
+        <v>98375</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>143454</v>
+        <v>143492</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01643200827255385</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01375111531661126</v>
+        <v>0.01360645402956358</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01984132970470993</v>
+        <v>0.01984663000468807</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>498412</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>445818</v>
+        <v>452598</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>543121</v>
+        <v>545216</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1420394210487126</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1270510305368305</v>
+        <v>0.1289830764366077</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1547807175627253</v>
+        <v>0.1553778749254128</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>518</v>
@@ -2908,19 +2908,19 @@
         <v>456126</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>418003</v>
+        <v>417781</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>500276</v>
+        <v>494991</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.1225787892336193</v>
+        <v>0.1225787892336192</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1123336430726388</v>
+        <v>0.1122739756566129</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1344436053884401</v>
+        <v>0.1330230979951428</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>919</v>
@@ -2929,19 +2929,19 @@
         <v>954538</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>889693</v>
+        <v>893379</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1014616</v>
+        <v>1020173</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.1320236345236051</v>
+        <v>0.1320236345236052</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1230547298212205</v>
+        <v>0.1235645998402775</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1403330340035073</v>
+        <v>0.1411017337240976</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>162964</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>137669</v>
+        <v>135354</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>193175</v>
+        <v>192276</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0464422191587328</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03923352998595981</v>
+        <v>0.03857366713748817</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05505183920865649</v>
+        <v>0.05479568240735455</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>193</v>
@@ -2979,19 +2979,19 @@
         <v>137895</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>118056</v>
+        <v>119696</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>159343</v>
+        <v>160805</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.03705772742393576</v>
+        <v>0.03705772742393575</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03172618805710285</v>
+        <v>0.03216681755903347</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04282173789540638</v>
+        <v>0.04321459662465296</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>340</v>
@@ -3000,19 +3000,19 @@
         <v>300859</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>268751</v>
+        <v>268323</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>335416</v>
+        <v>340180</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04161231092371533</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03717131835213131</v>
+        <v>0.03711219211948027</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04639183690596975</v>
+        <v>0.04705083496610619</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>840053</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>784852</v>
+        <v>784544</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>899600</v>
+        <v>898922</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2394017556333037</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2236703793605663</v>
+        <v>0.2235825022034374</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2563715864043635</v>
+        <v>0.2561782936284886</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1166</v>
@@ -3050,19 +3050,19 @@
         <v>901411</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>851788</v>
+        <v>842600</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>949009</v>
+        <v>943641</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2422440147249433</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2289084609135358</v>
+        <v>0.226439084160363</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2550355060662379</v>
+        <v>0.2535927508190193</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1855</v>
@@ -3071,19 +3071,19 @@
         <v>1741464</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1673204</v>
+        <v>1669141</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1820442</v>
+        <v>1814145</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2408645786588556</v>
+        <v>0.2408645786588557</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.231423441966128</v>
+        <v>0.2308614391912852</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2517880816525501</v>
+        <v>0.2509170905497317</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>1904856</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1837840</v>
+        <v>1839282</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1966545</v>
+        <v>1972775</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5428535224050888</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5237551067106259</v>
+        <v>0.524165928116832</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5604337532945657</v>
+        <v>0.5622093952454681</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3362</v>
@@ -3121,19 +3121,19 @@
         <v>2141743</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2086346</v>
+        <v>2092937</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2194845</v>
+        <v>2201946</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.5755692847553282</v>
+        <v>0.5755692847553281</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5606817547384053</v>
+        <v>0.5624532424390309</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5898398035595017</v>
+        <v>0.5917479780558383</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5406</v>
@@ -3142,19 +3142,19 @@
         <v>4046600</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3961516</v>
+        <v>3968918</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4131221</v>
+        <v>4135107</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.559691315484962</v>
+        <v>0.5596913154849623</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5479233243510084</v>
+        <v>0.5489471219617761</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5713953840957768</v>
+        <v>0.5719329015621536</v>
       </c>
     </row>
     <row r="38">
